--- a/art.xlsx
+++ b/art.xlsx
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18" customHeight="1"/>
@@ -976,13 +976,13 @@
       <c r="AC6" s="2">
         <v>22</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="5">
         <v>21</v>
       </c>
       <c r="AE6" s="2">
         <v>20</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="1">
         <v>19</v>
       </c>
       <c r="AG6" s="2">
@@ -1050,49 +1050,49 @@
       <c r="S7" s="2">
         <v>15</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="5">
         <v>14</v>
       </c>
       <c r="U7" s="2">
         <v>13</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="5">
         <v>12</v>
       </c>
       <c r="W7" s="2">
         <v>11</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="5">
         <v>10</v>
       </c>
       <c r="Y7" s="2">
         <v>9</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="5">
         <v>8</v>
       </c>
       <c r="AB7" s="2">
         <v>15</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="5">
         <v>14</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="2">
         <v>13</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="5">
         <v>12</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="1">
         <v>11</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="1">
         <v>10</v>
       </c>
       <c r="AH7" s="2">
         <v>9</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7" s="5">
         <v>8</v>
       </c>
     </row>
@@ -1148,49 +1148,49 @@
       <c r="S8" s="2">
         <v>7</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="2">
         <v>6</v>
       </c>
       <c r="U8" s="2">
         <v>5</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="2">
         <v>4</v>
       </c>
       <c r="W8" s="2">
         <v>3</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="2">
         <v>2</v>
       </c>
       <c r="Y8" s="2">
         <v>1</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="2">
         <v>0</v>
       </c>
       <c r="AB8" s="2">
         <v>7</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8" s="2">
         <v>6</v>
       </c>
       <c r="AD8" s="2">
         <v>5</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="2">
         <v>4</v>
       </c>
       <c r="AF8" s="2">
         <v>3</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AG8" s="1">
         <v>2</v>
       </c>
       <c r="AH8" s="2">
         <v>1</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AI8" s="2">
         <v>0</v>
       </c>
     </row>
